--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/FR_DISPATCHRMS_DATASET_9Channel/1U3I3I_phC.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/FR_DISPATCHRMS_DATASET_9Channel/1U3I3I_phC.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A2474D-BBE2-4A69-9142-513CD5B6AF98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48E2245-E0CE-48C2-B66E-D2FDFFDDEABE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -745,8 +745,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -1352,8 +1352,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1550,7 +1550,7 @@
         <v>96</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1558,7 +1558,7 @@
         <v>97</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1699,7 +1699,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
